--- a/#data/dump เครื่องจักร_PACS_2023-06-30.xlsx
+++ b/#data/dump เครื่องจักร_PACS_2023-06-30.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auraiwan.s\Desktop\AP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\e-service\#data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{734CD88E-D366-4F99-B4A4-95A0E6FFE63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26204267-3649-4FC0-ABF8-53196B6530FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EFB4E0D2-0072-4B4C-B73D-7B140CAF1AB4}"/>
   </bookViews>
   <sheets>
     <sheet name="PACS" sheetId="1" r:id="rId1"/>
+    <sheet name="สถานที่" sheetId="3" r:id="rId2"/>
+    <sheet name="หมวด" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PACS!$A$1:$G$363</definedName>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="715">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -2181,6 +2183,9 @@
   </si>
   <si>
     <t>Building (อาคาร, สิ่งปลูกสร้าง)</t>
+  </si>
+  <si>
+    <t>(1, NULL, 1, NULL, NULL, NULL, 1, 7, 'ไม่มีหมวด', NULL, '2023-03-24 12:12:12', 1, NULL, NULL, 1),</t>
   </si>
 </sst>
 </file>
@@ -2286,7 +2291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2319,6 +2324,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2635,8 +2646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F040E7A7-E97C-4EEE-A549-142226CF34F9}">
   <dimension ref="A1:G363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="C361" sqref="C361"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2645,9 +2656,9 @@
     <col min="2" max="2" width="22.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.42578125" style="13" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="39.140625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="54.42578125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" style="12" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -4102,7 +4113,9 @@
       <c r="D65" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="5"/>
+      <c r="E65" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="F65" s="8" t="s">
         <v>140</v>
       </c>
@@ -4165,7 +4178,9 @@
       <c r="D68" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="5"/>
+      <c r="E68" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F68" s="8" t="s">
         <v>145</v>
       </c>
@@ -5098,9 +5113,11 @@
       <c r="D109" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E109" s="5"/>
+      <c r="E109" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="F109" s="8" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="G109" s="9">
         <v>31</v>
@@ -7127,7 +7144,9 @@
       <c r="D200" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E200" s="5"/>
+      <c r="E200" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="F200" s="8" t="s">
         <v>397</v>
       </c>
@@ -8593,7 +8612,9 @@
         <v>426</v>
       </c>
       <c r="D264" s="5"/>
-      <c r="E264" s="5"/>
+      <c r="E264" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="F264" s="8" t="s">
         <v>516</v>
       </c>
@@ -10883,4 +10904,2831 @@
   <pageMargins left="0.23622047244094491" right="0.15748031496062992" top="0.31" bottom="0.32" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B25033-FF9D-49D7-AB47-10355276B990}">
+  <dimension ref="A1:C277"/>
+  <sheetViews>
+    <sheetView topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="C168" sqref="C168"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="278" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>127</v>
+      </c>
+      <c r="B127" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>128</v>
+      </c>
+      <c r="B128" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>129</v>
+      </c>
+      <c r="B129" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>130</v>
+      </c>
+      <c r="B130" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>131</v>
+      </c>
+      <c r="B131" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>132</v>
+      </c>
+      <c r="B132" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>133</v>
+      </c>
+      <c r="B133" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>134</v>
+      </c>
+      <c r="B134" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>135</v>
+      </c>
+      <c r="B135" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>136</v>
+      </c>
+      <c r="B136" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>137</v>
+      </c>
+      <c r="B137" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>138</v>
+      </c>
+      <c r="B138" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>139</v>
+      </c>
+      <c r="B139" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>140</v>
+      </c>
+      <c r="B140" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>141</v>
+      </c>
+      <c r="B141" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>142</v>
+      </c>
+      <c r="B142" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>143</v>
+      </c>
+      <c r="B143" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>145</v>
+      </c>
+      <c r="B145" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>150</v>
+      </c>
+      <c r="B150" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>151</v>
+      </c>
+      <c r="B151" t="s">
+        <v>200</v>
+      </c>
+      <c r="C151">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>152</v>
+      </c>
+      <c r="B152" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>153</v>
+      </c>
+      <c r="B153" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>154</v>
+      </c>
+      <c r="B154" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>155</v>
+      </c>
+      <c r="B155" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>156</v>
+      </c>
+      <c r="B156" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>157</v>
+      </c>
+      <c r="B157" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>158</v>
+      </c>
+      <c r="B158" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>159</v>
+      </c>
+      <c r="B159" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>160</v>
+      </c>
+      <c r="B160" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161">
+        <v>161</v>
+      </c>
+      <c r="B161" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162">
+        <v>162</v>
+      </c>
+      <c r="B162" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163">
+        <v>163</v>
+      </c>
+      <c r="B163" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164">
+        <v>164</v>
+      </c>
+      <c r="B164" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165">
+        <v>165</v>
+      </c>
+      <c r="B165" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166">
+        <v>166</v>
+      </c>
+      <c r="B166" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167">
+        <v>167</v>
+      </c>
+      <c r="B167" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168">
+        <v>168</v>
+      </c>
+      <c r="B168" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169">
+        <v>169</v>
+      </c>
+      <c r="B169" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170">
+        <v>170</v>
+      </c>
+      <c r="B170" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171">
+        <v>171</v>
+      </c>
+      <c r="B171" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172">
+        <v>172</v>
+      </c>
+      <c r="B172" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173">
+        <v>173</v>
+      </c>
+      <c r="B173" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174">
+        <v>174</v>
+      </c>
+      <c r="B174" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175">
+        <v>175</v>
+      </c>
+      <c r="B175" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176">
+        <v>176</v>
+      </c>
+      <c r="B176" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177">
+        <v>177</v>
+      </c>
+      <c r="B177" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178">
+        <v>178</v>
+      </c>
+      <c r="B178" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179">
+        <v>179</v>
+      </c>
+      <c r="B179" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180">
+        <v>180</v>
+      </c>
+      <c r="B180" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181">
+        <v>181</v>
+      </c>
+      <c r="B181" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182">
+        <v>182</v>
+      </c>
+      <c r="B182" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183">
+        <v>183</v>
+      </c>
+      <c r="B183" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184">
+        <v>184</v>
+      </c>
+      <c r="B184" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185">
+        <v>185</v>
+      </c>
+      <c r="B185" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186">
+        <v>186</v>
+      </c>
+      <c r="B186" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187">
+        <v>187</v>
+      </c>
+      <c r="B187" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188">
+        <v>188</v>
+      </c>
+      <c r="B188" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189">
+        <v>189</v>
+      </c>
+      <c r="B189" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190">
+        <v>190</v>
+      </c>
+      <c r="B190" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191">
+        <v>191</v>
+      </c>
+      <c r="B191" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192">
+        <v>192</v>
+      </c>
+      <c r="B192" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193">
+        <v>193</v>
+      </c>
+      <c r="B193" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194">
+        <v>194</v>
+      </c>
+      <c r="B194" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195">
+        <v>195</v>
+      </c>
+      <c r="B195" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196">
+        <v>196</v>
+      </c>
+      <c r="B196" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197">
+        <v>197</v>
+      </c>
+      <c r="B197" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198">
+        <v>198</v>
+      </c>
+      <c r="B198" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199">
+        <v>199</v>
+      </c>
+      <c r="B199" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200">
+        <v>200</v>
+      </c>
+      <c r="B200" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201">
+        <v>201</v>
+      </c>
+      <c r="B201" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202">
+        <v>202</v>
+      </c>
+      <c r="B202" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203">
+        <v>203</v>
+      </c>
+      <c r="B203" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204">
+        <v>204</v>
+      </c>
+      <c r="B204" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205">
+        <v>205</v>
+      </c>
+      <c r="B205" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206">
+        <v>206</v>
+      </c>
+      <c r="B206" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207">
+        <v>207</v>
+      </c>
+      <c r="B207" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208">
+        <v>208</v>
+      </c>
+      <c r="B208" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209">
+        <v>209</v>
+      </c>
+      <c r="B209" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210">
+        <v>210</v>
+      </c>
+      <c r="B210" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211">
+        <v>211</v>
+      </c>
+      <c r="B211" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212">
+        <v>212</v>
+      </c>
+      <c r="B212" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213">
+        <v>213</v>
+      </c>
+      <c r="B213" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214">
+        <v>214</v>
+      </c>
+      <c r="B214" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215">
+        <v>215</v>
+      </c>
+      <c r="B215" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216">
+        <v>216</v>
+      </c>
+      <c r="B216" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217">
+        <v>217</v>
+      </c>
+      <c r="B217" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218">
+        <v>218</v>
+      </c>
+      <c r="B218" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219">
+        <v>219</v>
+      </c>
+      <c r="B219" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220">
+        <v>220</v>
+      </c>
+      <c r="B220" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221">
+        <v>221</v>
+      </c>
+      <c r="B221" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222">
+        <v>222</v>
+      </c>
+      <c r="B222" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223">
+        <v>223</v>
+      </c>
+      <c r="B223" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224">
+        <v>224</v>
+      </c>
+      <c r="B224" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225">
+        <v>225</v>
+      </c>
+      <c r="B225" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226">
+        <v>226</v>
+      </c>
+      <c r="B226" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227">
+        <v>227</v>
+      </c>
+      <c r="B227" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228">
+        <v>228</v>
+      </c>
+      <c r="B228" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229">
+        <v>229</v>
+      </c>
+      <c r="B229" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230">
+        <v>230</v>
+      </c>
+      <c r="B230" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231">
+        <v>231</v>
+      </c>
+      <c r="B231" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232">
+        <v>232</v>
+      </c>
+      <c r="B232" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233">
+        <v>233</v>
+      </c>
+      <c r="B233" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234">
+        <v>234</v>
+      </c>
+      <c r="B234" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235">
+        <v>235</v>
+      </c>
+      <c r="B235" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236">
+        <v>236</v>
+      </c>
+      <c r="B236" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237">
+        <v>237</v>
+      </c>
+      <c r="B237" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238">
+        <v>238</v>
+      </c>
+      <c r="B238" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239">
+        <v>239</v>
+      </c>
+      <c r="B239" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240">
+        <v>240</v>
+      </c>
+      <c r="B240" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241">
+        <v>241</v>
+      </c>
+      <c r="B241" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242">
+        <v>242</v>
+      </c>
+      <c r="B242" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243">
+        <v>243</v>
+      </c>
+      <c r="B243" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244">
+        <v>244</v>
+      </c>
+      <c r="B244" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245">
+        <v>245</v>
+      </c>
+      <c r="B245" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246">
+        <v>246</v>
+      </c>
+      <c r="B246" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247">
+        <v>247</v>
+      </c>
+      <c r="B247" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248">
+        <v>248</v>
+      </c>
+      <c r="B248" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249">
+        <v>249</v>
+      </c>
+      <c r="B249" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250">
+        <v>250</v>
+      </c>
+      <c r="B250" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251">
+        <v>251</v>
+      </c>
+      <c r="B251" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252">
+        <v>252</v>
+      </c>
+      <c r="B252" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253">
+        <v>253</v>
+      </c>
+      <c r="B253" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254">
+        <v>254</v>
+      </c>
+      <c r="B254" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255">
+        <v>255</v>
+      </c>
+      <c r="B255" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256">
+        <v>256</v>
+      </c>
+      <c r="B256" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257">
+        <v>257</v>
+      </c>
+      <c r="B257" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258">
+        <v>258</v>
+      </c>
+      <c r="B258" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259">
+        <v>259</v>
+      </c>
+      <c r="B259" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260">
+        <v>260</v>
+      </c>
+      <c r="B260" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261">
+        <v>261</v>
+      </c>
+      <c r="B261" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262">
+        <v>262</v>
+      </c>
+      <c r="B262" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263">
+        <v>263</v>
+      </c>
+      <c r="B263" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264">
+        <v>264</v>
+      </c>
+      <c r="B264" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265">
+        <v>265</v>
+      </c>
+      <c r="B265" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266">
+        <v>266</v>
+      </c>
+      <c r="B266" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267">
+        <v>267</v>
+      </c>
+      <c r="B267" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268">
+        <v>268</v>
+      </c>
+      <c r="B268" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269">
+        <v>269</v>
+      </c>
+      <c r="B269" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270">
+        <v>270</v>
+      </c>
+      <c r="B270" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271">
+        <v>271</v>
+      </c>
+      <c r="B271" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272">
+        <v>272</v>
+      </c>
+      <c r="B272" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273">
+        <v>273</v>
+      </c>
+      <c r="B273" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274">
+        <v>274</v>
+      </c>
+      <c r="B274" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275">
+        <v>275</v>
+      </c>
+      <c r="B275" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276">
+        <v>276</v>
+      </c>
+      <c r="B276" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277">
+        <v>277</v>
+      </c>
+      <c r="B277" t="s">
+        <v>626</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F416D9-5F63-45DF-B32A-575D6D18DD14}">
+  <dimension ref="A1:F115"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="93.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31.5" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="31.5" customHeight="1">
+      <c r="A2" s="15"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="F3" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="F4" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="F5" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="F6" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="F7" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="F8" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="F9" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="F10" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="F11" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="F12" s="14" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="F13" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="F14" s="14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="F15" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="F16" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="14" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="14" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6">
+      <c r="F29" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6">
+      <c r="F32" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6">
+      <c r="F55" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6">
+      <c r="F56" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6">
+      <c r="F57" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6">
+      <c r="F58" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6">
+      <c r="F59" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6">
+      <c r="F60" s="14" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6">
+      <c r="F61" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6">
+      <c r="F62" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6">
+      <c r="F63" s="14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6">
+      <c r="F64" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6">
+      <c r="F65" s="14" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" s="14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6">
+      <c r="F67" s="14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6">
+      <c r="F68" s="14" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" s="14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6">
+      <c r="F70" s="14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6">
+      <c r="F71" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6">
+      <c r="F72" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6">
+      <c r="F73" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6">
+      <c r="F74" s="14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6">
+      <c r="F75" s="14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6">
+      <c r="F76" s="14" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6">
+      <c r="F77" s="14" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6">
+      <c r="F78" s="14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6">
+      <c r="F79" s="14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6">
+      <c r="F80" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81" s="14" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6">
+      <c r="F82" s="14" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83" s="14" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6">
+      <c r="F84" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6">
+      <c r="F85" s="14" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6">
+      <c r="F86" s="14" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6">
+      <c r="F87" s="14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6">
+      <c r="F88" s="14" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6">
+      <c r="F89" s="14" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6">
+      <c r="F90" s="14" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6">
+      <c r="F91" s="14" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6">
+      <c r="F92" s="14" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6">
+      <c r="F93" s="14" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="94" spans="6:6">
+      <c r="F94" s="14" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6">
+      <c r="F95" s="14" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6">
+      <c r="F96" s="14" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6">
+      <c r="F97" s="14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6">
+      <c r="F98" s="14" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6">
+      <c r="F99" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6">
+      <c r="F100" s="14" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6">
+      <c r="F101" s="14" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6">
+      <c r="F102" s="14" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6">
+      <c r="F103" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6">
+      <c r="F104" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6">
+      <c r="F105" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6">
+      <c r="F106" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="107" spans="6:6">
+      <c r="F107" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6">
+      <c r="F108" s="14" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="109" spans="6:6">
+      <c r="F109" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="110" spans="6:6">
+      <c r="F110" s="14" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="111" spans="6:6">
+      <c r="F111" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="112" spans="6:6">
+      <c r="F112" s="14" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6">
+      <c r="F113" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="114" spans="6:6">
+      <c r="F114" s="14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="115" spans="6:6">
+      <c r="F115" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>